--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="659">
   <si>
     <t>School</t>
   </si>
@@ -694,6 +694,9 @@
     <t>https://coppinstatesports.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://coppinstatesports.com/sb_output.aspx?form=3</t>
+  </si>
+  <si>
     <t>Cornell University</t>
   </si>
   <si>
@@ -778,7 +781,7 @@
     <t>https://godrakebulldogs.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://my.armssoftware.com/arms/public/questionnaire/6e433f29fa83</t>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/59e35a57c761</t>
   </si>
   <si>
     <t>Drexel University</t>
@@ -805,7 +808,7 @@
     <t>https://goduke.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://my.armssoftware.com/arms/public/questionnaire/7b5f78afbc5e</t>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/132256dbd7b8</t>
   </si>
   <si>
     <t>East Carolina University</t>
@@ -862,6 +865,9 @@
     <t>https://ekusports.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?iid=1637&amp;sportid=31</t>
+  </si>
+  <si>
     <t>Elon University</t>
   </si>
   <si>
@@ -874,6 +880,9 @@
     <t>https://elonphoenix.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://elonphoenix.com/SoftballRecruit</t>
+  </si>
+  <si>
     <t>Fairfield University</t>
   </si>
   <si>
@@ -886,6 +895,9 @@
     <t>https://fairfieldstags.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://questionnaires.armssoftware.com/066707c33309</t>
+  </si>
+  <si>
     <t>Fairleigh Dickinson University</t>
   </si>
   <si>
@@ -898,6 +910,9 @@
     <t>https://fduknights.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?iid=475&amp;sportid=31</t>
+  </si>
+  <si>
     <t>Florida Agricultural and Mechanical University</t>
   </si>
   <si>
@@ -994,7 +1009,7 @@
     <t>https://furmanpaladins.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://my.armssoftware.com/arms/public/questionnaire/72dfbe9b4bc2</t>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/69ea3250b875</t>
   </si>
   <si>
     <t>Gardner-Webb University</t>
@@ -1009,7 +1024,7 @@
     <t>https://gwusports.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://questionnaires.armssoftware.com/f6db47f1df60</t>
+    <t>https://gwusports.com/sports/2020/7/29/recruiting.aspx</t>
   </si>
   <si>
     <t>George Mason University</t>
@@ -1072,7 +1087,7 @@
     <t>https://gseagles.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://my.armssoftware.com/arms/public/questionnaire/6932eff0ba28</t>
+    <t>https://gseagles.com/news/2024/2/5/womens-tennis-recruiting-class-ranked-no-22-by-tennis-recruiting-network.aspx</t>
   </si>
   <si>
     <t>Georgia State University</t>
@@ -1087,6 +1102,9 @@
     <t>https://georgiastatesports.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://georgiastatesports.com/sports/softball</t>
+  </si>
+  <si>
     <t>Grambling State University</t>
   </si>
   <si>
@@ -1099,6 +1117,9 @@
     <t>https://gsutigers.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://questionnaire.acsathletics.com/Questionnaire/Questionnaire.aspx?q=2360&amp;s=60547&amp;o=874</t>
+  </si>
+  <si>
     <t>Grand Canyon University</t>
   </si>
   <si>
@@ -1111,7 +1132,7 @@
     <t>https://gculopes.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>https://gculopes.com/sports/2020/12/2/recruiting.aspx</t>
+    <t>https://questionnaire.acsathletics.com/Questionnaire/Questionnaire.aspx?%2fW8k1TcppQxvDvdMQDrEsrrWESTqxlIZ46lPyx0lZtcjwM28Puogzmf%2fLL1LWOiA</t>
   </si>
   <si>
     <t>Hampton University</t>
@@ -1141,6 +1162,9 @@
     <t>https://gocrimson.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://gocrimson.com/sports/2020/5/5/information-recruiting-recruiting-rules.aspx</t>
+  </si>
+  <si>
     <t>Hofstra University</t>
   </si>
   <si>
@@ -1153,9 +1177,6 @@
     <t>https://gohofstra.com/sports/softball/coaches</t>
   </si>
   <si>
-    <t>http://my.armssoftware.com/arms/public/questionnaire/af7f61bb3f18</t>
-  </si>
-  <si>
     <t>Houston Christian University</t>
   </si>
   <si>
@@ -1168,6 +1189,9 @@
     <t>https://hbuhuskies.com/sports/softball/coaches</t>
   </si>
   <si>
+    <t>https://hcuhuskies.com/news/2024/7/31/softball-sb-hcu-completes-recruiting-class-with-six-more-additions.aspx</t>
+  </si>
+  <si>
     <t>Howard University</t>
   </si>
   <si>
@@ -1181,6 +1205,789 @@
   </si>
   <si>
     <t>https://hubison.com/documents/2020/8/24/Recruiting_Through_Electronic_Correspondence_and_Social_Media_FAQ.pdf?path=general</t>
+  </si>
+  <si>
+    <t>Idaho State University</t>
+  </si>
+  <si>
+    <t>https://isubengals.com</t>
+  </si>
+  <si>
+    <t>https://isubengals.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://isubengals.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Illinois State University</t>
+  </si>
+  <si>
+    <t>https://goredbirds.com</t>
+  </si>
+  <si>
+    <t>https://goredbirds.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goredbirds.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/221e7b836591</t>
+  </si>
+  <si>
+    <t>Indiana State University</t>
+  </si>
+  <si>
+    <t>https://gosycamores.com</t>
+  </si>
+  <si>
+    <t>https://gosycamores.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://gosycamores.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Indiana University Bloomington</t>
+  </si>
+  <si>
+    <t>https://iuhoosiers.com</t>
+  </si>
+  <si>
+    <t>https://iuhoosiers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://iuhoosiers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Indiana University Indianapolis</t>
+  </si>
+  <si>
+    <t>https://athletics.uindy.edu</t>
+  </si>
+  <si>
+    <t>https://athletics.uindy.edu/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://athletics.uindy.edu/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Iona University</t>
+  </si>
+  <si>
+    <t>https://icgaels.com</t>
+  </si>
+  <si>
+    <t>https://icgaels.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://icgaels.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://my.armssoftware.com/arms/public/questionnaire/44eb8f343c5b</t>
+  </si>
+  <si>
+    <t>Iowa State University</t>
+  </si>
+  <si>
+    <t>https://cyclones.com</t>
+  </si>
+  <si>
+    <t>https://cyclones.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://cyclones.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/75bd1185d4f8</t>
+  </si>
+  <si>
+    <t>Jackson State University</t>
+  </si>
+  <si>
+    <t>https://gojsutigers.com</t>
+  </si>
+  <si>
+    <t>https://gojsutigers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://gojsutigers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Jacksonville State University</t>
+  </si>
+  <si>
+    <t>https://jsugamecocksports.com</t>
+  </si>
+  <si>
+    <t>https://jsugamecocksports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://jsugamecocksports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://jaxstatesports.com/sb_output.aspx?form=5</t>
+  </si>
+  <si>
+    <t>Jacksonville University</t>
+  </si>
+  <si>
+    <t>https://judolphins.com/index.aspx</t>
+  </si>
+  <si>
+    <t>https://judolphins.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://judolphins.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>James Madison University</t>
+  </si>
+  <si>
+    <t>https://jmusports.com</t>
+  </si>
+  <si>
+    <t>https://jmusports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://jmusports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://jmusports.com/sports/2020/6/24/recruiting-central?path=recruiting</t>
+  </si>
+  <si>
+    <t>Kennesaw State University</t>
+  </si>
+  <si>
+    <t>https://ksuowls.com</t>
+  </si>
+  <si>
+    <t>https://ksuowls.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://ksuowls.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?iid=394&amp;sportid=31</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>https://kentstatesports.com</t>
+  </si>
+  <si>
+    <t>https://kentstatesports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://kentstatesports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?iid=339&amp;sportid=31</t>
+  </si>
+  <si>
+    <t>Lafayette College</t>
+  </si>
+  <si>
+    <t>https://goleopards.com</t>
+  </si>
+  <si>
+    <t>https://goleopards.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goleopards.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/b585ea2124f3</t>
+  </si>
+  <si>
+    <t>Lamar University</t>
+  </si>
+  <si>
+    <t>https://lamarcardinals.com</t>
+  </si>
+  <si>
+    <t>https://lamarcardinals.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lamarcardinals.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Le Moyne College</t>
+  </si>
+  <si>
+    <t>https://lemoynedolphins.com</t>
+  </si>
+  <si>
+    <t>https://lemoynedolphins.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lemoynedolphins.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://my.armssoftware.com/arms/public/questionnaire/a6937ed2e80c</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>https://lehighsports.com</t>
+  </si>
+  <si>
+    <t>https://lehighsports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lehighsports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://lehighsports.com/sports/2020/7/31/recruiting.aspx</t>
+  </si>
+  <si>
+    <t>Liberty University</t>
+  </si>
+  <si>
+    <t>https://libertyflames.com</t>
+  </si>
+  <si>
+    <t>https://libertyflames.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://libertyflames.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Lindenwood University</t>
+  </si>
+  <si>
+    <t>https://lindenwoodlions.com</t>
+  </si>
+  <si>
+    <t>https://lindenwoodlions.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lindenwoodlions.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Lipscomb University</t>
+  </si>
+  <si>
+    <t>https://lipscombsports.com</t>
+  </si>
+  <si>
+    <t>https://lipscombsports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lipscombsports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Long Island University</t>
+  </si>
+  <si>
+    <t>https://liuathletics.com</t>
+  </si>
+  <si>
+    <t>https://liuathletics.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://liuathletics.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Longwood University</t>
+  </si>
+  <si>
+    <t>https://longwoodlancers.com</t>
+  </si>
+  <si>
+    <t>https://longwoodlancers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://longwoodlancers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/9b3fea085d7a</t>
+  </si>
+  <si>
+    <t>Louisiana State University</t>
+  </si>
+  <si>
+    <t>https://lsusports.net</t>
+  </si>
+  <si>
+    <t>https://lsusports.net/sports/sb/roster/</t>
+  </si>
+  <si>
+    <t>https://lsusports.net/recruiting/</t>
+  </si>
+  <si>
+    <t>Louisiana Tech University</t>
+  </si>
+  <si>
+    <t>https://latechsports.com</t>
+  </si>
+  <si>
+    <t>https://latechsports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://latechsports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Loyola Marymount University</t>
+  </si>
+  <si>
+    <t>https://lmulions.com</t>
+  </si>
+  <si>
+    <t>https://lmulions.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://lmulions.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/c1c8824a6ed3</t>
+  </si>
+  <si>
+    <t>Loyola University Chicago</t>
+  </si>
+  <si>
+    <t>https://loyolaramblers.com</t>
+  </si>
+  <si>
+    <t>https://loyolaramblers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://loyolaramblers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Manhattan College</t>
+  </si>
+  <si>
+    <t>https://gojaspers.com</t>
+  </si>
+  <si>
+    <t>https://gojaspers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://gojaspers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Marist College</t>
+  </si>
+  <si>
+    <t>https://goredfoxes.com</t>
+  </si>
+  <si>
+    <t>https://goredfoxes.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goredfoxes.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/0977af620065</t>
+  </si>
+  <si>
+    <t>Marshall University</t>
+  </si>
+  <si>
+    <t>https://herdzone.com</t>
+  </si>
+  <si>
+    <t>https://herdzone.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://herdzone.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>McNeese State University</t>
+  </si>
+  <si>
+    <t>https://mcneesesports.com</t>
+  </si>
+  <si>
+    <t>https://mcneesesports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://mcneesesports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?iid=411&amp;sportid=31</t>
+  </si>
+  <si>
+    <t>Mercer University</t>
+  </si>
+  <si>
+    <t>https://mercerbears.com</t>
+  </si>
+  <si>
+    <t>https://mercerbears.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://mercerbears.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Mercyhurst University</t>
+  </si>
+  <si>
+    <t>https://hurstathletics.com</t>
+  </si>
+  <si>
+    <t>https://hurstathletics.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://hurstathletics.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/831f577c561c</t>
+  </si>
+  <si>
+    <t>Merrimack College</t>
+  </si>
+  <si>
+    <t>https://merrimackathletics.com</t>
+  </si>
+  <si>
+    <t>https://merrimackathletics.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://merrimackathletics.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/c03e1aac6d0f</t>
+  </si>
+  <si>
+    <t>Miami University</t>
+  </si>
+  <si>
+    <t>https://miamiredhawks.com</t>
+  </si>
+  <si>
+    <t>https://miamiredhawks.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://miamiredhawks.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://my.armssoftware.com/arms/public/questionnaire/2eb8b5522899</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>https://msuspartans.com</t>
+  </si>
+  <si>
+    <t>https://msuspartans.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://msuspartans.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/a8ea47440122</t>
+  </si>
+  <si>
+    <t>Middle Tennessee State University</t>
+  </si>
+  <si>
+    <t>https://goblueraiders.com</t>
+  </si>
+  <si>
+    <t>https://goblueraiders.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goblueraiders.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Mississippi State University</t>
+  </si>
+  <si>
+    <t>https://hailstate.com</t>
+  </si>
+  <si>
+    <t>https://hailstate.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://hailstate.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Mississippi Valley State University</t>
+  </si>
+  <si>
+    <t>https://mvsusports.com</t>
+  </si>
+  <si>
+    <t>https://mvsusports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://mvsusports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Missouri State University</t>
+  </si>
+  <si>
+    <t>https://missouristatebears.com</t>
+  </si>
+  <si>
+    <t>https://missouristatebears.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://missouristatebears.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/e34564fb91a3</t>
+  </si>
+  <si>
+    <t>Monmouth University</t>
+  </si>
+  <si>
+    <t>https://monmouthhawks.com</t>
+  </si>
+  <si>
+    <t>https://monmouthhawks.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://monmouthhawks.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://monmouthhawks.com/sb_output.aspx?form=12</t>
+  </si>
+  <si>
+    <t>Morehead State University</t>
+  </si>
+  <si>
+    <t>https://msueagles.com</t>
+  </si>
+  <si>
+    <t>https://msueagles.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://msueagles.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Morgan State University</t>
+  </si>
+  <si>
+    <t>https://morganstatebears.com</t>
+  </si>
+  <si>
+    <t>https://morganstatebears.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://morganstatebears.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's University</t>
+  </si>
+  <si>
+    <t>https://mountathletics.com</t>
+  </si>
+  <si>
+    <t>https://mountathletics.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://mountathletics.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Murray State University</t>
+  </si>
+  <si>
+    <t>https://goracers.com</t>
+  </si>
+  <si>
+    <t>https://goracers.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goracers.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>New Mexico State University</t>
+  </si>
+  <si>
+    <t>https://nmstatesports.com</t>
+  </si>
+  <si>
+    <t>https://nmstatesports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nmstatesports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://college.jumpforward.com/questionnaire.aspx?DB_OEM_ID=1900&amp;iid=1572&amp;sportid=31</t>
+  </si>
+  <si>
+    <t>Niagara University</t>
+  </si>
+  <si>
+    <t>https://purpleeagles.com</t>
+  </si>
+  <si>
+    <t>https://purpleeagles.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://purpleeagles.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/e124b4fefaac</t>
+  </si>
+  <si>
+    <t>Nicholls State University</t>
+  </si>
+  <si>
+    <t>https://geauxcolonels.com</t>
+  </si>
+  <si>
+    <t>https://geauxcolonels.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://geauxcolonels.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Norfolk State University</t>
+  </si>
+  <si>
+    <t>https://nsuspartans.com</t>
+  </si>
+  <si>
+    <t>https://nsuspartans.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nsuspartans.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/8797cc1de481</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T</t>
+  </si>
+  <si>
+    <t>https://ncataggies.com</t>
+  </si>
+  <si>
+    <t>https://ncataggies.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://ncataggies.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://questionnaires.armssoftware.com/812bd334619e?path=softball</t>
+  </si>
+  <si>
+    <t>North Carolina Central University</t>
+  </si>
+  <si>
+    <t>https://nccueaglepride.com</t>
+  </si>
+  <si>
+    <t>https://nccueaglepride.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nccueaglepride.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://nccueaglepride.com/sb_output.aspx?form=3</t>
+  </si>
+  <si>
+    <t>North Carolina State University</t>
+  </si>
+  <si>
+    <t>https://gopack.com</t>
+  </si>
+  <si>
+    <t>https://gopack.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://gopack.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>North Dakota State University</t>
+  </si>
+  <si>
+    <t>https://gobison.com</t>
+  </si>
+  <si>
+    <t>https://gobison.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://gobison.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Northern Illinois University</t>
+  </si>
+  <si>
+    <t>https://niuhuskies.com</t>
+  </si>
+  <si>
+    <t>https://niuhuskies.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://niuhuskies.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://my.armssoftware.com/arms/public/questionnaire/fe8a7e94f222</t>
+  </si>
+  <si>
+    <t>Northern Kentucky University</t>
+  </si>
+  <si>
+    <t>https://nkunorse.com</t>
+  </si>
+  <si>
+    <t>https://nkunorse.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nkunorse.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://college.jumpforward.com/questionnaire.aspx?iid=1618&amp;sportid=31</t>
+  </si>
+  <si>
+    <t>Northwestern State University</t>
+  </si>
+  <si>
+    <t>https://nsudemons.com</t>
+  </si>
+  <si>
+    <t>https://nsudemons.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nsudemons.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>https://nusports.com</t>
+  </si>
+  <si>
+    <t>https://nusports.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://nusports.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>Oakland University</t>
+  </si>
+  <si>
+    <t>https://goldengrizzlies.com</t>
+  </si>
+  <si>
+    <t>https://goldengrizzlies.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://goldengrizzlies.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>http://my.armssoftware.com/arms/public/questionnaire/2375ad676cb2</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>https://ohiostatebuckeyes.com</t>
+  </si>
+  <si>
+    <t>https://ohiostatebuckeyes.com/sports/softball/roster</t>
+  </si>
+  <si>
+    <t>https://ohiostatebuckeyes.com/sports/softball/coaches</t>
+  </si>
+  <si>
+    <t>https://ohiostatebuckeyes.com/sports/2019/5/21/recruits-main</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +2370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E141"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2362,89 +3169,89 @@
         <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
@@ -2452,33 +3259,33 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
@@ -2486,67 +3293,67 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
@@ -2554,118 +3361,118 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E63" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -2673,33 +3480,33 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D67" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
@@ -2707,84 +3514,84 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E70" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E71" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
@@ -2792,16 +3599,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -2809,16 +3616,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C74" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
         <v>34</v>
@@ -2826,155 +3633,1141 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E75" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D77" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C78" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E78" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B79" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C79" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D79" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E81" t="s">
-        <v>380</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" t="s">
+        <v>404</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" t="s">
+        <v>408</v>
+      </c>
+      <c r="C86" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" t="s">
+        <v>410</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>411</v>
+      </c>
+      <c r="B87" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" t="s">
+        <v>413</v>
+      </c>
+      <c r="D87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" t="s">
+        <v>417</v>
+      </c>
+      <c r="D88" t="s">
+        <v>418</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>419</v>
+      </c>
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>421</v>
+      </c>
+      <c r="D89" t="s">
+        <v>422</v>
+      </c>
+      <c r="E89" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" t="s">
+        <v>425</v>
+      </c>
+      <c r="C90" t="s">
+        <v>426</v>
+      </c>
+      <c r="D90" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" t="s">
+        <v>431</v>
+      </c>
+      <c r="D91" t="s">
+        <v>432</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" t="s">
+        <v>436</v>
+      </c>
+      <c r="E92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>438</v>
+      </c>
+      <c r="B93" t="s">
+        <v>439</v>
+      </c>
+      <c r="C93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" t="s">
+        <v>441</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" t="s">
+        <v>443</v>
+      </c>
+      <c r="C94" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D95" t="s">
+        <v>450</v>
+      </c>
+      <c r="E95" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>452</v>
+      </c>
+      <c r="B96" t="s">
+        <v>453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>454</v>
+      </c>
+      <c r="D96" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>457</v>
+      </c>
+      <c r="B97" t="s">
+        <v>458</v>
+      </c>
+      <c r="C97" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" t="s">
+        <v>460</v>
+      </c>
+      <c r="E97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>462</v>
+      </c>
+      <c r="B98" t="s">
+        <v>463</v>
+      </c>
+      <c r="C98" t="s">
+        <v>464</v>
+      </c>
+      <c r="D98" t="s">
+        <v>465</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" t="s">
+        <v>468</v>
+      </c>
+      <c r="D99" t="s">
+        <v>469</v>
+      </c>
+      <c r="E99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>471</v>
+      </c>
+      <c r="B100" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" t="s">
+        <v>474</v>
+      </c>
+      <c r="E100" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>476</v>
+      </c>
+      <c r="B101" t="s">
+        <v>477</v>
+      </c>
+      <c r="C101" t="s">
+        <v>478</v>
+      </c>
+      <c r="D101" t="s">
+        <v>479</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>480</v>
+      </c>
+      <c r="B102" t="s">
+        <v>481</v>
+      </c>
+      <c r="C102" t="s">
+        <v>482</v>
+      </c>
+      <c r="D102" t="s">
+        <v>483</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>484</v>
+      </c>
+      <c r="B103" t="s">
+        <v>485</v>
+      </c>
+      <c r="C103" t="s">
+        <v>486</v>
+      </c>
+      <c r="D103" t="s">
+        <v>487</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>488</v>
+      </c>
+      <c r="B104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" t="s">
+        <v>491</v>
+      </c>
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>492</v>
+      </c>
+      <c r="B105" t="s">
+        <v>493</v>
+      </c>
+      <c r="C105" t="s">
+        <v>494</v>
+      </c>
+      <c r="D105" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>497</v>
+      </c>
+      <c r="B106" t="s">
+        <v>498</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>499</v>
+      </c>
+      <c r="E106" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" t="s">
+        <v>503</v>
+      </c>
+      <c r="D107" t="s">
+        <v>504</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" t="s">
+        <v>506</v>
+      </c>
+      <c r="C108" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" t="s">
+        <v>508</v>
+      </c>
+      <c r="E108" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109" t="s">
+        <v>513</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" t="s">
+        <v>515</v>
+      </c>
+      <c r="C110" t="s">
+        <v>516</v>
+      </c>
+      <c r="D110" t="s">
+        <v>517</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>518</v>
+      </c>
+      <c r="B111" t="s">
+        <v>519</v>
+      </c>
+      <c r="C111" t="s">
+        <v>520</v>
+      </c>
+      <c r="D111" t="s">
+        <v>521</v>
+      </c>
+      <c r="E111" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>523</v>
+      </c>
+      <c r="B112" t="s">
+        <v>524</v>
+      </c>
+      <c r="C112" t="s">
+        <v>525</v>
+      </c>
+      <c r="D112" t="s">
+        <v>526</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>527</v>
+      </c>
+      <c r="B113" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" t="s">
+        <v>529</v>
+      </c>
+      <c r="D113" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>532</v>
+      </c>
+      <c r="B114" t="s">
+        <v>533</v>
+      </c>
+      <c r="C114" t="s">
+        <v>534</v>
+      </c>
+      <c r="D114" t="s">
+        <v>535</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" t="s">
+        <v>537</v>
+      </c>
+      <c r="C115" t="s">
+        <v>538</v>
+      </c>
+      <c r="D115" t="s">
+        <v>539</v>
+      </c>
+      <c r="E115" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>541</v>
+      </c>
+      <c r="B116" t="s">
+        <v>542</v>
+      </c>
+      <c r="C116" t="s">
+        <v>543</v>
+      </c>
+      <c r="D116" t="s">
+        <v>544</v>
+      </c>
+      <c r="E116" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>546</v>
+      </c>
+      <c r="B117" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" t="s">
+        <v>548</v>
+      </c>
+      <c r="D117" t="s">
+        <v>549</v>
+      </c>
+      <c r="E117" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>551</v>
+      </c>
+      <c r="B118" t="s">
+        <v>552</v>
+      </c>
+      <c r="C118" t="s">
+        <v>553</v>
+      </c>
+      <c r="D118" t="s">
+        <v>554</v>
+      </c>
+      <c r="E118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>556</v>
+      </c>
+      <c r="B119" t="s">
+        <v>557</v>
+      </c>
+      <c r="C119" t="s">
+        <v>558</v>
+      </c>
+      <c r="D119" t="s">
+        <v>559</v>
+      </c>
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>560</v>
+      </c>
+      <c r="B120" t="s">
+        <v>561</v>
+      </c>
+      <c r="C120" t="s">
+        <v>562</v>
+      </c>
+      <c r="D120" t="s">
+        <v>563</v>
+      </c>
+      <c r="E120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>564</v>
+      </c>
+      <c r="B121" t="s">
+        <v>565</v>
+      </c>
+      <c r="C121" t="s">
+        <v>566</v>
+      </c>
+      <c r="D121" t="s">
+        <v>567</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>568</v>
+      </c>
+      <c r="B122" t="s">
+        <v>569</v>
+      </c>
+      <c r="C122" t="s">
+        <v>570</v>
+      </c>
+      <c r="D122" t="s">
+        <v>571</v>
+      </c>
+      <c r="E122" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>573</v>
+      </c>
+      <c r="B123" t="s">
+        <v>574</v>
+      </c>
+      <c r="C123" t="s">
+        <v>575</v>
+      </c>
+      <c r="D123" t="s">
+        <v>576</v>
+      </c>
+      <c r="E123" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>578</v>
+      </c>
+      <c r="B124" t="s">
+        <v>579</v>
+      </c>
+      <c r="C124" t="s">
+        <v>580</v>
+      </c>
+      <c r="D124" t="s">
+        <v>581</v>
+      </c>
+      <c r="E124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>582</v>
+      </c>
+      <c r="B125" t="s">
+        <v>583</v>
+      </c>
+      <c r="C125" t="s">
+        <v>584</v>
+      </c>
+      <c r="D125" t="s">
+        <v>585</v>
+      </c>
+      <c r="E125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>586</v>
+      </c>
+      <c r="B126" t="s">
+        <v>587</v>
+      </c>
+      <c r="C126" t="s">
+        <v>588</v>
+      </c>
+      <c r="D126" t="s">
+        <v>589</v>
+      </c>
+      <c r="E126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>590</v>
+      </c>
+      <c r="B127" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" t="s">
+        <v>592</v>
+      </c>
+      <c r="D127" t="s">
+        <v>593</v>
+      </c>
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>594</v>
+      </c>
+      <c r="B128" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" t="s">
+        <v>596</v>
+      </c>
+      <c r="D128" t="s">
+        <v>597</v>
+      </c>
+      <c r="E128" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>599</v>
+      </c>
+      <c r="B129" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" t="s">
+        <v>601</v>
+      </c>
+      <c r="D129" t="s">
+        <v>602</v>
+      </c>
+      <c r="E129" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>604</v>
+      </c>
+      <c r="B130" t="s">
+        <v>605</v>
+      </c>
+      <c r="C130" t="s">
+        <v>606</v>
+      </c>
+      <c r="D130" t="s">
+        <v>607</v>
+      </c>
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>608</v>
+      </c>
+      <c r="B131" t="s">
+        <v>609</v>
+      </c>
+      <c r="C131" t="s">
+        <v>610</v>
+      </c>
+      <c r="D131" t="s">
+        <v>611</v>
+      </c>
+      <c r="E131" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>613</v>
+      </c>
+      <c r="B132" t="s">
+        <v>614</v>
+      </c>
+      <c r="C132" t="s">
+        <v>615</v>
+      </c>
+      <c r="D132" t="s">
+        <v>616</v>
+      </c>
+      <c r="E132" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>618</v>
+      </c>
+      <c r="B133" t="s">
+        <v>619</v>
+      </c>
+      <c r="C133" t="s">
+        <v>620</v>
+      </c>
+      <c r="D133" t="s">
+        <v>621</v>
+      </c>
+      <c r="E133" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>623</v>
+      </c>
+      <c r="B134" t="s">
+        <v>624</v>
+      </c>
+      <c r="C134" t="s">
+        <v>625</v>
+      </c>
+      <c r="D134" t="s">
+        <v>626</v>
+      </c>
+      <c r="E134" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>627</v>
+      </c>
+      <c r="B135" t="s">
+        <v>628</v>
+      </c>
+      <c r="C135" t="s">
+        <v>629</v>
+      </c>
+      <c r="D135" t="s">
+        <v>630</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>631</v>
+      </c>
+      <c r="B136" t="s">
+        <v>632</v>
+      </c>
+      <c r="C136" t="s">
+        <v>633</v>
+      </c>
+      <c r="D136" t="s">
+        <v>634</v>
+      </c>
+      <c r="E136" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>636</v>
+      </c>
+      <c r="B137" t="s">
+        <v>637</v>
+      </c>
+      <c r="C137" t="s">
+        <v>638</v>
+      </c>
+      <c r="D137" t="s">
+        <v>639</v>
+      </c>
+      <c r="E137" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>641</v>
+      </c>
+      <c r="B138" t="s">
+        <v>642</v>
+      </c>
+      <c r="C138" t="s">
+        <v>643</v>
+      </c>
+      <c r="D138" t="s">
+        <v>644</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139" t="s">
+        <v>646</v>
+      </c>
+      <c r="C139" t="s">
+        <v>647</v>
+      </c>
+      <c r="D139" t="s">
+        <v>648</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>649</v>
+      </c>
+      <c r="B140" t="s">
+        <v>650</v>
+      </c>
+      <c r="C140" t="s">
+        <v>651</v>
+      </c>
+      <c r="D140" t="s">
+        <v>652</v>
+      </c>
+      <c r="E140" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>654</v>
+      </c>
+      <c r="B141" t="s">
+        <v>655</v>
+      </c>
+      <c r="C141" t="s">
+        <v>656</v>
+      </c>
+      <c r="D141" t="s">
+        <v>657</v>
+      </c>
+      <c r="E141" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
